--- a/backend/data/synthetic_data.xlsx
+++ b/backend/data/synthetic_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-aditbalaji\Downloads\EntraLens\backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140D76AC-E937-49C4-B31C-ECCC100E8516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16DB5466-E5BA-4004-B0DF-41A88E7F74B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{2DAF98B8-B3DE-4C93-9C69-5B23C8DB78FF}"/>
   </bookViews>
@@ -36,12 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="540">
   <si>
     <t>customer_questions</t>
-  </si>
-  <si>
-    <t>Show sign-ins with applied conditional access policies</t>
   </si>
   <si>
     <t>what does it mean that they are an external account? .</t>
@@ -174,7 +171,1996 @@
     <t>link to login into microsoft entra admin certer</t>
   </si>
   <si>
-    <t>申し訳ありませんが、特定の個人に関する情報を教えることはできません。個人のプライバシーを保護するため、具体的な情報の提供は制限されています。何か一般的な質問やトピックに関する情報をご希望でしたら、お手伝いできますので、ぜひお知らせください！</t>
+    <t>entra</t>
+  </si>
+  <si>
+    <t>standalone</t>
+  </si>
+  <si>
+    <t>copilot_source</t>
+  </si>
+  <si>
+    <t>Show all the audit logs from the last day.</t>
+  </si>
+  <si>
+    <t>what PIM role do I need to remote lock a device?.</t>
+  </si>
+  <si>
+    <t>what are the different device join types, and what do they mean?.</t>
+  </si>
+  <si>
+    <t>what is the difference between remote lock and disable for a device?.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to create group. Details: Failed to create group NA-ITDREN-VARONIS Collector Servers. Insufficient privileges to complete the operation..</t>
+  </si>
+  <si>
+    <t>List all the groups I am a member of</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to save group. Details: Failed to save dynamic group. .</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Activate role failed. Details: The Role assignment already exists..</t>
+  </si>
+  <si>
+    <t>List directory-role assignments for the user who attempted the failed activation.</t>
+  </si>
+  <si>
+    <t>how to prove data at rest is  encrypted</t>
+  </si>
+  <si>
+    <t>what is the home region for this tenant</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Application assignment failed. Details: Assignment failed for 1 user &amp; 0 groups. Click on the notification title to learn more..</t>
+  </si>
+  <si>
+    <t>Microsoft Entra Internet Access license</t>
+  </si>
+  <si>
+    <t>List all active licenses in tenant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">evaluate Policy: Country based conditional access policy
+</t>
+  </si>
+  <si>
+    <t>Identify any issues with this account that would prevent it from being available as a custodial data source in a Purview eDiscovery case.</t>
+  </si>
+  <si>
+    <t>Do I have the ability to register applications with this role?</t>
+  </si>
+  <si>
+    <t>Under what circumstances does the Register an application page display Service Tree ID as a mandatory field?</t>
+  </si>
+  <si>
+    <t>What is my activated role?</t>
+  </si>
+  <si>
+    <t>which roles can i remove?</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to save multifactor authentication policy. Details: Unexpected error when saving multifactor authentication policy.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Refresh the browser to try again.. Details: [object Object].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer ran into error with Failed to add Google as a social identity provider.. Details: Failed to add Google as a social identity provider..
+</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to add Google as a social identity provider.. Details: Failed to add Google as a social identity provider..</t>
+  </si>
+  <si>
+    <t>Where can I find the authority URL for a registered application?</t>
+  </si>
+  <si>
+    <t>list all users of usertype=member</t>
+  </si>
+  <si>
+    <t>endpoints for this enterprise application</t>
+  </si>
+  <si>
+    <t>Show all the audit logs from the last day</t>
+  </si>
+  <si>
+    <t>metadata url</t>
+  </si>
+  <si>
+    <t>what required details?</t>
+  </si>
+  <si>
+    <t>internet access from the tenant is slow</t>
+  </si>
+  <si>
+    <t>check tenant internet access resource response time</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to remove the selected members. Details: Insufficient privileges to remove the selected members..</t>
+  </si>
+  <si>
+    <t>where is microsoft health and outage reprting</t>
+  </si>
+  <si>
+    <t>What is enabled mean for devices?</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Save single sign-on configuration. Details: Unable to save single sign-on configuration...</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to create group. Details: Failed to create group App-AttackSimulation-DynamicE5Users. Insufficient privileges to complete the operation..</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Save single sign-on configuration. Details: Unable to save single sign-on configuration..</t>
+  </si>
+  <si>
+    <t>Customer ran into error with User invitation failed. Details: Group email address is not supported.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to save on-premises password reset policy. Details: Unexpected error when saving on-premises password reset policy.</t>
+  </si>
+  <si>
+    <t>Show MFA sign-ins with the status of "Failure".</t>
+  </si>
+  <si>
+    <t>sign-in logs with failed multifactor authentication.</t>
+  </si>
+  <si>
+    <t>Build me a kql query to find status failure for MFA sign-ins. Also to be able to check what authentication method being used for MFA.</t>
+  </si>
+  <si>
+    <t>Which Directory Roles are assigned to user  2502ad4d-955c-4588-b2ab-cd34d8a712a4?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I get this error:     Failed to resolve expression 'status.errorCode'
+</t>
+  </si>
+  <si>
+    <t>what is my user id?</t>
+  </si>
+  <si>
+    <t>Which users with a UPN ending in @SevilleCSS.onmicrosoft.com have not signed in in the last 30 days?</t>
+  </si>
+  <si>
+    <t>Which users of userType=member have not signed in in the last 30 days?</t>
+  </si>
+  <si>
+    <t>HELLO</t>
+  </si>
+  <si>
+    <t>whoami</t>
+  </si>
+  <si>
+    <t>List groups Entra Copilot Test Account owns.</t>
+  </si>
+  <si>
+    <t>what eligible role does linkai li have?.</t>
+  </si>
+  <si>
+    <t>were do you turn off this rule..</t>
+  </si>
+  <si>
+    <t>how do i check correlation id 37ce7fde-ba86-4ae8-9455-64c5b8f5e12d.</t>
+  </si>
+  <si>
+    <t>List apps containing 'Substrate' in their name..</t>
+  </si>
+  <si>
+    <t>Show audit logs initiated by service principal 5d31cb19-e129-4135-8e9c-bc9db2d8f557..</t>
+  </si>
+  <si>
+    <t>show me the name of this app App ID: 98db8bd6-0cc0-4e67-9de5-f187f1cd1b41.</t>
+  </si>
+  <si>
+    <t>who is Service principal ID
+5d31cb19-e129-4135-8e9c-bc9db2d8f557.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to remove group member. Details: Insufficient privileges to remove the selected members...</t>
+  </si>
+  <si>
+    <t>who made this change?.</t>
+  </si>
+  <si>
+    <t>what eligible role does app EntraCopilotTest have?.</t>
+  </si>
+  <si>
+    <t>what active role does app EntraCopilotTest have?.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to create group. Details: Failed to create group NoahTEST2. ..</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Delete device. Details: Failed to delete device 3121S-C23-025_x000D_
+_x000D_
+Details: Operation failed..</t>
+  </si>
+  <si>
+    <t>Ensure third party integrated applications are not allowed.</t>
+  </si>
+  <si>
+    <t>Give me all user details for odl_user_1779160@otuwacne103370.onmicrosoft.com and extract the user Object ID..</t>
+  </si>
+  <si>
+    <t>What licenses are assigned to the user odl_user_1779160@otuwacne103370.onmicrosoft.com user.
+.</t>
+  </si>
+  <si>
+    <t>Give me all user details for odl_user_1779156@otuwacne103367.onmicrosoft.com and extract the user Object ID..</t>
+  </si>
+  <si>
+    <t>give me all user details for odl_user_1779157@otuwacne103368.onmicrosoft.com and extract the userr Object ID.</t>
+  </si>
+  <si>
+    <t>Tell me more about this user.</t>
+  </si>
+  <si>
+    <t>What licenses are assigned to the user odl_user_1779147@otuwacne103358.onmicrosoft.com user..</t>
+  </si>
+  <si>
+    <t>List all the groups I am a member of.</t>
+  </si>
+  <si>
+    <t>what licenses are assigned to this user??.</t>
+  </si>
+  <si>
+    <t>Give me all user details for odl_user_1779147@otuwacne103358.onmicrosoft.com and extract the user Object ID..</t>
+  </si>
+  <si>
+    <t>What licenses are assigned to the user odl_user_1779148@otuwacne103359.onmicrosoft.com user..</t>
+  </si>
+  <si>
+    <t>Give me all user details for odl_user_1779149@otuwacne103361.onmicrosoft.com and extract the user Object ID..</t>
+  </si>
+  <si>
+    <t>Give me all user details for odl_user_1779141@otuwacne103355.onmicrosoft.com and extract the user Object ID..</t>
+  </si>
+  <si>
+    <t>What licenses are assigned to the user odl_user_1779149@otuwacne103361.onmicrosoft.com user..</t>
+  </si>
+  <si>
+    <t>What licenses are assigned to the user odl_user_1779141@otuwacne103355.onmicrosoft.com user..</t>
+  </si>
+  <si>
+    <t>Analyze destination risk for login.microsoftonline.com.</t>
+  </si>
+  <si>
+    <t>Show me sign ins by users with the ModernSOC JobTitle.</t>
+  </si>
+  <si>
+    <t>Como eu faço para ver um relatorio de uma maquina especifica.</t>
+  </si>
+  <si>
+    <t>I am seeing a failure under user robert.miller3 signins with a failure reason of device authentication failed. Why.</t>
+  </si>
+  <si>
+    <t>026572CNJ mostra o resultado do quick scan.</t>
+  </si>
+  <si>
+    <t>where do i see assigned copilot licenses.</t>
+  </si>
+  <si>
+    <t>List user sign-ins that failed in the last 24 hours.</t>
+  </si>
+  <si>
+    <t>hw to create a client_id and Client_secret to be used in terraform.</t>
+  </si>
+  <si>
+    <t>who in JP quesadas organization has copilot licenses.</t>
+  </si>
+  <si>
+    <t>where fo i find copilot licenses .</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to create 'No persistent browser session'. Details: An unexpected error occurred, please try again later..</t>
+  </si>
+  <si>
+    <t>y quién le realizó la invitación al usuario?</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to add group member. Details: Insufficient privileges to add the selected members...</t>
+  </si>
+  <si>
+    <t>tell me what's this https://login.microsoftonline.com/d067b103-ba99-424a-a82c-19cc0e86cf37/saml2 or where is it located .</t>
+  </si>
+  <si>
+    <t>Tráeme información del usuario que creo la cuenta  dluna@iwco.co</t>
+  </si>
+  <si>
+    <t>Traeme información del usuario que creo la cuenta de Diego Fernando Luna Ceballos</t>
+  </si>
+  <si>
+    <t>Show risky sign-ins.</t>
+  </si>
+  <si>
+    <t>List enabled Conditional-Access policies.</t>
+  </si>
+  <si>
+    <t>The agent was not deployed. Please try again.
+Learn more
+This agent checks that new users and apps added in the last 24 hours are protected by existing Conditional Access policies. It may create new policies in report-only mode by itself, but requires admin approval to update existing policies or turn on new ones.
+Learn more about this agent
+Trigger</t>
+  </si>
+  <si>
+    <t>Please show me all risky users who do not have ACT, Inc. in the Company Name field.  Please organize the results by Company Name</t>
+  </si>
+  <si>
+    <t>O cliente encontrou um erro com Falha ao excluir. Motivo – (Claudia Tirloni). CorrelationId – ({1}). Detalhes: &lt;div&gt;A solicitação é inválida.&lt;/div&gt;&lt;div style="margin:10px 0;font-weight:bold"&gt;More Details&lt;/div&gt;&lt;dl&gt;&lt;dt&gt;Correlation id&lt;/dt&gt;&lt;dl&gt;813af879-da2b-48c8-aefe-13d8bf6badb0&lt;/dl&gt;&lt;/dl&gt;.</t>
+  </si>
+  <si>
+    <t>where to search for an existing VM.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Activate role failed. Details: The Role assignment already exists...</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to create group. Details: Failed to create group All Windows 10 and 11 Workstations. ..</t>
+  </si>
+  <si>
+    <t>how do you cancel all azure subscriptions on a tenant.</t>
+  </si>
+  <si>
+    <t>can you do this via the UI.</t>
+  </si>
+  <si>
+    <t>Is there a public microsoft learn doc that also has these instructions?.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Private Network settings. Details: Application operation failed...</t>
+  </si>
+  <si>
+    <t>how can I grant admin consent for this app registration.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with User invitation failed. Details: Insufficient privileges to complete the operation...</t>
+  </si>
+  <si>
+    <t>Can you show me how to find the service prinicpal in the portal.</t>
+  </si>
+  <si>
+    <t>Can you grant the admin consent for this service prinicpal.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Unable to add method. Details: Unable to add Phone number. - Value of unique property 'ProxyAddresses' is already in use by 'Group' with ObjectId '55c590e7-1853-4e97-82a3-bc284b448c86'...</t>
+  </si>
+  <si>
+    <t>sign in error code 530031.</t>
+  </si>
+  <si>
+    <t>what does sign in error code 530031 mean?.</t>
+  </si>
+  <si>
+    <t>adding bulk member to this group.</t>
+  </si>
+  <si>
+    <t>show me GSA traffic logs from past week.</t>
+  </si>
+  <si>
+    <t>Show traffic logs filtered by IP Address 10.230.1.6.</t>
+  </si>
+  <si>
+    <t>Show traffic logs filtered by IP Address 100.78.48.44.</t>
+  </si>
+  <si>
+    <t>show traffic logs made by user mayank@naaslitware.com
+i am talking about the logs that are in this page:
+https://entra.microsoft.com/#view/Microsoft_Azure_Network_Access/TrafficLogs.ReactView
+.</t>
+  </si>
+  <si>
+    <t>when was this device disable?.</t>
+  </si>
+  <si>
+    <t>Show last modification to device 21c18648-9e55-4b4e-9793-b235056f51f0.</t>
+  </si>
+  <si>
+    <t>List CA policies enforcing MFA..</t>
+  </si>
+  <si>
+    <t>how to exclude an account from MFA for example like admin@cequence.ai.</t>
+  </si>
+  <si>
+    <t>okay now that you've the service principals, now tell me which groups have any of these apps and check if dan.gagliardi@cequence.ai is part of any of these groups, if not tell me to which group shall i add him to provide access to admin.apispyder.cequence.ai.</t>
+  </si>
+  <si>
+    <t>okay which groups have these apps Spyder Portal - Dev
+App ID: 6b39f63d-399e-41a6-9b17-260cd7a2ff1a
+VPN IN-1
+App ID: d02dfcc5-6f05-4c76-9265-76b77aaa9407
+vCenter SSO
+App ID: 65c79cb9-7c4a-4b58-a29d-4b32a9eb7068
+SaaS Tenant SSO
+App ID: 6b757e8c-7169-491f-9422-7fa504efd92f
+AWS (QA Environment)
+App ID: f811cca7-842b-4d85-806f-30535d3999b8 configured.</t>
+  </si>
+  <si>
+    <t>list apps which have anything related to this URL : admin.apispyder.cequence.ai in SAML settings .</t>
+  </si>
+  <si>
+    <t>Can you export the current conditional access policies to a csv file.</t>
+  </si>
+  <si>
+    <t>Yes.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Unable to add method. Details: Unable to add Phone number. - Mobile phone method is already registered for this account...</t>
+  </si>
+  <si>
+    <t>sentinel dashboard.</t>
+  </si>
+  <si>
+    <t>Based on the Global Secure Access configuration, is gsapm@naaslitware.com allowed to access crazygames.com? 
+.</t>
+  </si>
+  <si>
+    <t>List all users with the proxy address p.mitchell@intercruises.com.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to update user. Details: Update would cause the user to have a proxy address already present on contact "p.mitchell@intercruises.com"...</t>
+  </si>
+  <si>
+    <t>List all contacts with the proxy address p.mitchell@intercruises.com..</t>
+  </si>
+  <si>
+    <t>Show audit logs for provisioning management.</t>
+  </si>
+  <si>
+    <t>Please answer the previous request.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Unable to make domain name primary. Details: Unable to make domain name 'humansecurity.com' primary of Human Security Inc....</t>
+  </si>
+  <si>
+    <t>where are federation settings.</t>
+  </si>
+  <si>
+    <t>unable to make domain name primary.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to delete user. Details: Insufficient privileges to delete the selected users...</t>
+  </si>
+  <si>
+    <t>summarize my noncompliant devices</t>
+  </si>
+  <si>
+    <t>are there any known vulnerabilities on any of the devices bstegink@intelligink.com has signed in from?</t>
+  </si>
+  <si>
+    <t>How many app registrations have expired certificates?</t>
+  </si>
+  <si>
+    <t>can you analyze bstegink@intelligink signin logs and look at the locations he signs in from?</t>
+  </si>
+  <si>
+    <t>are there any other locations bstegink@intelligink.com signs in from?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hola tu eres una ayudante </t>
+  </si>
+  <si>
+    <t>any reasons why this can happen without admin's notice .</t>
+  </si>
+  <si>
+    <t>tell me when I last signed into this tenant..</t>
+  </si>
+  <si>
+    <t>can you explain with me the error code 50057.</t>
+  </si>
+  <si>
+    <t>liste para mim quais as roll que dão permissão de acesso ao MDE.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to upload user profile photo. Details: Failed to upload user profile photo for Jacob Shichman..</t>
+  </si>
+  <si>
+    <t>do i have any team manageble assignments?.</t>
+  </si>
+  <si>
+    <t>how to get to azure cli.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Provisioning test connection. Details: [object Object]..</t>
+  </si>
+  <si>
+    <t>Customer ran into error with User 'Das, Kaushik (Fractal)' addition failed. Details: &lt;div&gt;Access package cannot be requested, please contact your administrator for more information. This access package requires a Microsoft Entra ID Governance subscription.&lt;/div&gt;&lt;div style="margin:10px 0;font-weight:bold"&gt;More Details&lt;/div&gt;&lt;dl&gt;&lt;dt&gt;Correlation id&lt;/dt&gt;&lt;dl&gt;e4507877-5d69-43b2-a962-16288279966a&lt;/dl&gt;&lt;/dl&gt;..</t>
+  </si>
+  <si>
+    <t>Customer ran into error with User 'Das, Kaushik (Fractal)' addition failed. Details: &lt;div&gt;Access package cannot be requested, please contact your administrator for more information. This access package requires a Microsoft Entra ID Governance subscription.&lt;/div&gt;&lt;div style="margin:10px 0;font-weight:bold"&gt;More Details&lt;/div&gt;&lt;dl&gt;&lt;dt&gt;Correlation id&lt;/dt&gt;&lt;dl&gt;9cc0423e-0e97-479e-a231-daafa2eee44c&lt;/dl&gt;&lt;/dl&gt;..</t>
+  </si>
+  <si>
+    <t>Give me all user details for odl_user_1781190@azurehol3522.onmicrosoft.com and extract the user Object ID..</t>
+  </si>
+  <si>
+    <t>What licenses are assigned to the user odl_user_1781190@azurehol3522.onmicrosoft.com user..</t>
+  </si>
+  <si>
+    <t>Customer ran into error with SAML File upload. Details: Unable to retrieve ReplyURL (AssertionConsumerService) from metadata file. Please upload a valid Xml or manually input the value...</t>
+  </si>
+  <si>
+    <t>are there any active health security alerts.</t>
+  </si>
+  <si>
+    <t>do they have passkeys enabled.</t>
+  </si>
+  <si>
+    <t>list the global admins.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with User creation failed. Details: SourceAnchor is a required property for creation of a federated user...</t>
+  </si>
+  <si>
+    <t>Create a summary of this Overview blade for the CA agent</t>
+  </si>
+  <si>
+    <t>Show sign-in details for request ID 50097</t>
+  </si>
+  <si>
+    <t>List user sign-ins that failed in the last 24 hours</t>
+  </si>
+  <si>
+    <t>List users signing in using OneDrive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test1 </t>
+  </si>
+  <si>
+    <t>What users are assigned to the internet forwarding profile?</t>
+  </si>
+  <si>
+    <t>Are all users assigned to the M365 profile?</t>
+  </si>
+  <si>
+    <t>I want to change Agent schedule run from 24 hours to once per week.</t>
+  </si>
+  <si>
+    <t>how to change Agent recurrence pattern.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to add memberships. Details: Insufficient privileges to add the selected memberships...</t>
+  </si>
+  <si>
+    <t>Show details on this Azure AD user ID :397a9d34-540a-49f3-a5b6-4d818a074bbc
+.</t>
+  </si>
+  <si>
+    <t>where do i see what permissions are being granted for a enterprise app.</t>
+  </si>
+  <si>
+    <t>Are there any active health security recommendations?.</t>
+  </si>
+  <si>
+    <t>Are there any active security recommendations.</t>
+  </si>
+  <si>
+    <t>where does an admin consent to an enterprise app?.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to create group. Details: Failed to create group sg_dyn_WIN-TEST. ..</t>
+  </si>
+  <si>
+    <t>who are the global admins.</t>
+  </si>
+  <si>
+    <t>is there a policy requiring MFA for all users?.</t>
+  </si>
+  <si>
+    <t>the failure reasons are "Cannot configure multi-factor authentication methods because the organization requires this information to be set from specific locations or devices." and "Due to a configuration change made by your administrator, or because you moved to a new location, you must enroll in multi-factor authentication to access '{identifier}'.".</t>
+  </si>
+  <si>
+    <t>do you mean entra, or intune.</t>
+  </si>
+  <si>
+    <t>I am jayce, the user im looking for is Kevin Alexander.</t>
+  </si>
+  <si>
+    <t>List dismissed risky detections.</t>
+  </si>
+  <si>
+    <t>List confirmed-compromised users.</t>
+  </si>
+  <si>
+    <t>which of those have passkeys enabled?.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Some application assignments failed. Details: 3 assignments succeeded, 4 assignments failed..</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Update role grant failed. Details: The Active duration is too short. Miniumum Required is 5 minutes...</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Removing role assignment failed. Details: The Active duration is too short. Miniumum Required is 5 minutes...</t>
+  </si>
+  <si>
+    <t>Give me all user details for odl_user_1781376@otuwamoc102532.onmicrosoft.com and extract the user Object ID..</t>
+  </si>
+  <si>
+    <t>what roles does Give me all user details for odl_user_1781376@otuwamoc102532.onmicrosoft.com and extract the user Object ID have?.</t>
+  </si>
+  <si>
+    <t>does odl_user_1781376@otuwamoc102532.onmicrosoft.com have the permissions to deploy an Azure Purview instance and the ability to deploy a self hosted integrated runtime VM?.</t>
+  </si>
+  <si>
+    <t>List directory-role assignments for odl_user_1781376@otuwamoc102532.onmicrosoft.com.</t>
+  </si>
+  <si>
+    <t>does odl_user_1781376@otuwamoc102532.onmicrosoft.com have this permission: AccessReview.ReadWrite.All.</t>
+  </si>
+  <si>
+    <t>GIve me all the user details for ODL_User 1781382 and extract the user Object ID..</t>
+  </si>
+  <si>
+    <t>Give me all user details for odl_user_1781235@azurehol3453.onmicrosoft.com and extract the user Object ID..</t>
+  </si>
+  <si>
+    <t>What licenses are assigned to the user odl_user_1781235@azurehol3453.onmicrosoft.com user..</t>
+  </si>
+  <si>
+    <t>Give me all user details for odl_user_1781384@otuwamoc102537.onmicrosoft.com, and extract the user Object ID..</t>
+  </si>
+  <si>
+    <t>give me all details for user odl_user_1781104@otuwacne103291.onmicrosoft.com.</t>
+  </si>
+  <si>
+    <t>Give me all user details for odl_user_1781309@azurehol3514.onmicrosoft.com and extract the user Object ID..</t>
+  </si>
+  <si>
+    <t>give me all details for user odl_user_1781104.</t>
+  </si>
+  <si>
+    <t>What licenses are assigned to the user odl_user_1781384@otuwamoc102537.onmicrosoft.com?.</t>
+  </si>
+  <si>
+    <t>Give me all user details for odl_user_1781103@otuwacne103290.onmicrosoft.com and extract the user Object ID..</t>
+  </si>
+  <si>
+    <t>What licenses are assigned to the user odl_user_1781374@otuwamoc102530.onmicrosoft.com user..</t>
+  </si>
+  <si>
+    <t>What licenses are assigned to the user odl_user_1781104@otuwacne103291.onmicrosoft.com user.
+.</t>
+  </si>
+  <si>
+    <t>Give me all user details for odl_user_1781374@otuwamoc102530.onmicrosoft.com and extract the user Object ID..</t>
+  </si>
+  <si>
+    <t>List direct and nested group memberships for odl_user_1781376@otuwamoc102532.onmicrosoft.com.</t>
+  </si>
+  <si>
+    <t>What licenses are assigned to the user odl_user_1781312@azurehol3524.onmicrosoft.com user..</t>
+  </si>
+  <si>
+    <t>Give me all user details for odl_user_1781238@azurehol3459.onmicrosoft.com.</t>
+  </si>
+  <si>
+    <t>What licenses are assigned to  Entra Admin, you need to identify the licenses assigned to a odl_user_1781238 .</t>
+  </si>
+  <si>
+    <t>Give me all user details for odl_user_1781212@azurehol3458.onmicrosoft.com and extract the user Object ID..</t>
+  </si>
+  <si>
+    <t>Give me all user details for odl_user_1781355@otuwamoc102526.onmicrosoft.com and extract the user Object ID..</t>
+  </si>
+  <si>
+    <t>what is this user surname?.</t>
+  </si>
+  <si>
+    <t>Show last password-change date for odl_user_1781355@otuwamoc102526.onmicrosoft.com.</t>
+  </si>
+  <si>
+    <t>how many users are on the omicrosoft.com.</t>
+  </si>
+  <si>
+    <t>What licenses are assigned to the user odl_user_1781212@azurehol3458.onmicrosoft.com user..</t>
+  </si>
+  <si>
+    <t>Customer ran into error with User 'Mike Wang' addition failed. Details: &lt;div&gt;Access package cannot be requested, please contact your administrator for more information. This access package requires a Microsoft Entra ID Governance subscription.&lt;/div&gt;&lt;div style="margin:10px 0;font-weight:bold"&gt;More Details&lt;/div&gt;&lt;dl&gt;&lt;dt&gt;Correlation id&lt;/dt&gt;&lt;dl&gt;e64a10bb-2c84-4213-978b-ba0d594a849d&lt;/dl&gt;&lt;/dl&gt;..</t>
+  </si>
+  <si>
+    <t>Intern give me a rule syntax for a dynamic group that....embers that are ios sixteen and above
+ rule syntax for a dynamic group that enters members that are ios sixteen and above.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to create group. Details: Failed to create group INTRIGUE-INTUNE iOS USERS. ..</t>
+  </si>
+  <si>
+    <t>Show managed (Intune-enrolled) devices.</t>
+  </si>
+  <si>
+    <t>What licenses are assigned to the user odl_user_1781216@azurehol3490.onmicrosoft.com user..</t>
+  </si>
+  <si>
+    <t>What licenses are assigned to odl_user_1781354@otuwamoc102525.onmicrosoft.com.</t>
+  </si>
+  <si>
+    <t>You should identify and list all critical vulnerabilities detected in the last 30 days and prioritize them by risk level..</t>
+  </si>
+  <si>
+    <t>Summarize incident 15134..</t>
+  </si>
+  <si>
+    <t>Give me all user details for odl_user_1781210@azurehol3499.onmicrosoft.com and extract the user Object ID..</t>
+  </si>
+  <si>
+    <t>What licenses are assigned to the user odl_user_1781210@azurehol3499.onmicrosoft.com user..</t>
+  </si>
+  <si>
+    <t>List groups odl_user_1781355@otuwamoc102526.onmicrosoft.com owns.</t>
+  </si>
+  <si>
+    <t>What licenses are assigned to the user odl_user_1781215@azurehol3487.onmicrosoft.com user..</t>
+  </si>
+  <si>
+    <t>give me all user details for otuwacne103291.onmicrosoft.com.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Delete devices.. Details: Unable to delete device D8T2QN3...</t>
+  </si>
+  <si>
+    <t>Give me all user details for odl_user_1781215@azurehol3487.onmicrosoft.com and extract the user Object ID..</t>
+  </si>
+  <si>
+    <t>What licenses are assigned to the user odl_user_1781309@azurehol3514.onmicrosoft.com user..</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Delete devices.. Details: Unable to delete device Candy...</t>
+  </si>
+  <si>
+    <t>Give me all user details for odl_user_1781312@azurehol3524.onmicrosoft.com and extract the user Object ID..</t>
+  </si>
+  <si>
+    <t>Give me all user details for odl_user_1781216@azurehol3490.onmicrosoft.com and extract the user Object ID..</t>
+  </si>
+  <si>
+    <t>when was this user created?.</t>
+  </si>
+  <si>
+    <t>who am i.</t>
+  </si>
+  <si>
+    <t>What licenses are assigned to the user odl_user_1781355@otuwamoc102526.onmicrosoft.com user..</t>
+  </si>
+  <si>
+    <t>what ate their user names.</t>
+  </si>
+  <si>
+    <t>Give me all user details for odl_user_1781354@otuwamoc102525.onmicrosoft.com and extract the user Object ID..</t>
+  </si>
+  <si>
+    <t>What licenses are assigned to the user odl_user_1781103@otuwacne103290.onmicrosoft.com user..</t>
+  </si>
+  <si>
+    <t>Traeme las alertas de los últimos dos días del usuario BLLOREDA</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Access denied. Details: &lt;h2&gt;You don't have access to this data.&lt;/h2&gt;.</t>
+  </si>
+  <si>
+    <t>list all the global admins.</t>
+  </si>
+  <si>
+    <t>List the users at a 'High' risk level.</t>
+  </si>
+  <si>
+    <t>Le client a rencontré une erreur avec Échec de mise à jour de l'utilisateur. Détails : Autorisations insuffisantes pour mettre à jour certaines des propriétés suivantes : accountEnabled..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(user.accountEnabled -eq true) -and
+(user.companyName -contains "cloud") -and
+(
+    (
+        (user.department -eq "Technology") -or 
+        (user.physicalDeliveryOfficeName -contains "Tech")
+    )
+    -or
+    (user.jobTitle -contains "President") -or
+    (user.jobTitle -contains "Owner") -or 
+    (user.jobTitle -eq "CEO") -or 
+    (user.jobTitle -contains "Chief") -or  // &lt;-- Added this line
+    (
+        (user.jobTitle -contains "Admin") and 
+        (user.department -contains "Busi") and 
+        (user.physicalDeliveryOfficeName -contains "Exec")
+    )
+    -or
+    (user.physicalDeliveryOfficeName -contains "Pres") -or 
+    (user.physicalDeliveryOfficeName -contains "Tech") -or
+    (user.physicalDeliveryOfficeName -contains "Exec") -or 
+    (user.physicalDeliveryOfficeName -contains "Direct") 
+)
+</t>
+  </si>
+  <si>
+    <t>Point me to the sigh-in logs</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to upload user profile photo. Details: Failed to upload user profile photo for Jane Radiff..</t>
+  </si>
+  <si>
+    <t>I have a service account name, how can I undrestand which service is it for ?.</t>
+  </si>
+  <si>
+    <t>I have an account name how can I see exact user name?.</t>
+  </si>
+  <si>
+    <t>what about this :
+admin60e18e5540.</t>
+  </si>
+  <si>
+    <t>Show user details for admin60e18e5540.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Unable to delete method. Details: Unable to delete Phone number. - Cannot delete mobile number without first deleting alternate mobile number...</t>
+  </si>
+  <si>
+    <t>List the 5 most recent risky users in my tenant.</t>
+  </si>
+  <si>
+    <t>Show sign-in activity for Sophie C. Ternent (scternent@clarienbank.com)</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to update user. Details: Update would cause the user to have a proxy address already present on contact "Alyssa Griner"..</t>
+  </si>
+  <si>
+    <t>Internal error. Password validation request timed out. We were unable to either send the authentication request to the internal Hybrid Identity Service.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to update Enforce O365 Browser Timeout Limit. Details: Message from server: The server could not process the request because it is malformed or incorrect.
+1032: ConditionalActionPolicy validation failed due to InvalidConditionsForPersistentBrowserSessionMode...</t>
+  </si>
+  <si>
+    <t>give me a list of all the groups that Dave Richardson is a part of.</t>
+  </si>
+  <si>
+    <t>give me a list of all the distribution groups that Dave Richardson is a part of.</t>
+  </si>
+  <si>
+    <t>tell me how may conditional access polices are active.</t>
+  </si>
+  <si>
+    <t>List enabled Conditional‑Access policies..</t>
+  </si>
+  <si>
+    <t>How do I ensure a user is exempt from a SAML claim transformation?.</t>
+  </si>
+  <si>
+    <t>List all SAML claims for application e206c91f-6af1-4771-96fd-629b9d5fed6f.</t>
+  </si>
+  <si>
+    <t>Show sign-in activity for Arito Shimazaki.</t>
+  </si>
+  <si>
+    <t>ユーザーArito Shimazakiの詳細を教えてください.</t>
+  </si>
+  <si>
+    <t>Analyze what I can do to improve identity secure score, ranked by implementation cost where Low should come first.</t>
+  </si>
+  <si>
+    <t>50d651cf-461a-42e7-8d65-34c4acd2b957
+.</t>
+  </si>
+  <si>
+    <t>please can you provide a list of all user who do not have a line manager attributed to them ?.</t>
+  </si>
+  <si>
+    <t>please check all users and export the list in csv format .</t>
+  </si>
+  <si>
+    <t>please proceed with the csv export .</t>
+  </si>
+  <si>
+    <t>It doesn't let me save this group. Seems like an error with the filter</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to create group. Details: Failed to create group grp-Users-Office365CloudUpdates-INCLUDE. .</t>
+  </si>
+  <si>
+    <t>What dynamic group filter do I need for a group of users who are NOT in another group?</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to create group. Details: Failed to create group Shared Mailboxes for Veeam backup. .</t>
+  </si>
+  <si>
+    <t>How can I remove non-active user accounts?</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Some application assignments failed. Details: 4 assignments succeeded, 1 assignments failed..</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to add group membership. Details: Insufficient privileges to add the selected memberships...</t>
+  </si>
+  <si>
+    <t>Microsoft 365 F3 service plan id</t>
+  </si>
+  <si>
+    <t>List all tenant license SKUs</t>
+  </si>
+  <si>
+    <t>how to see what apps in app registrations use oidc authentication?.</t>
+  </si>
+  <si>
+    <t>Show sign-in activity for all access outside of Australia.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Download Sign-ins in CSV format. Details: Download failed...</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Bulk operations. Details: Bulk operation Batch1final.csv failed. Click on the title for more information..</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to update user. Details: Update would cause the user to have a proxy address already present on user "Ping Li". Click on the notification to see the conflicting user..</t>
+  </si>
+  <si>
+    <t>Explain the difference between eligible and active assignment</t>
+  </si>
+  <si>
+    <t>why were these 8 users flagged as high risk?</t>
+  </si>
+  <si>
+    <t>whoa re the 8 blocked high risk users</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Update application manifest. Details: Failed to update TfNSW - AA - PCM - staging application. Error detail: New password credentials must be generated using service actions. [eXkhmQBij2XRdMpaNuhw1h]..</t>
+  </si>
+  <si>
+    <t>How did this user authenticate MFA from outside of Australia?</t>
+  </si>
+  <si>
+    <t>where can I view users who do not have MFA enforced?</t>
+  </si>
+  <si>
+    <t>where can I view users who do not have MFA enforced that are not in the domain student.mlcsyd.nsw.edu.au??</t>
+  </si>
+  <si>
+    <t>Does AlexJ@M365x63155506.onmicrosoft.com has access to facebook.com?.</t>
+  </si>
+  <si>
+    <t>Have I any security alerts.</t>
+  </si>
+  <si>
+    <t>How can I improve my Secure Score for Identity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Analyze my conditional access policies and identify what I need to fix to be zero trust compliant..</t>
+  </si>
+  <si>
+    <t>List enabled Conditional-Access policies..</t>
+  </si>
+  <si>
+    <t>Resumir quantos usuários privilegiados existem no tenant?.</t>
+  </si>
+  <si>
+    <t>Listar todos os grupos que concedem privilégios elevados.</t>
+  </si>
+  <si>
+    <t>Por favor, extrair em formato .csv a listagem de todos os membros das funções (Administrador Global, Administrador de Usuários, Administrador de Faturamento, Administrador de Segurança e Administrador de Grupos).</t>
+  </si>
+  <si>
+    <t>O cliente encontrou um erro com Provisionar sob demanda. Detalhes: Falha no provisionamento sob demanda: O serviço de provisionamento do Microsoft Entra não tem as permissões necessárias no sistema de destino para provisionar um objeto sob demanda. Verifique se você forneceu credenciais com permissão suficiente no sistema de destino...</t>
+  </si>
+  <si>
+    <t>Quais são as funções de admistrador existentes no meu tenant?.</t>
+  </si>
+  <si>
+    <t>with url sentinel .</t>
+  </si>
+  <si>
+    <t>Olá, por favor, me liste todos os grupo que possuem função de criação de usuário ou delegação de acessos..</t>
+  </si>
+  <si>
+    <t>Customer ran into error with File download error. Details: Failed to download the file. Error details: error 0 ..</t>
+  </si>
+  <si>
+    <t>How many unused apps are in my tenant?</t>
+  </si>
+  <si>
+    <t>what azure resources does logs-ingestion-app has access to?</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Connected organization add failed for 'TBBD-External-Partners'. Details: &lt;div&gt;The identity provider for the partner cannot be the same as the resource tenant.&lt;/div&gt;&lt;div style="margin:10px 0;font-weight:bold"&gt;More Details&lt;/div&gt;&lt;dl&gt;&lt;dt&gt;Correlation id&lt;/dt&gt;&lt;dl&gt;478b6446-2d0b-4cc3-9226-13a7b67e3cb9&lt;/dl&gt;&lt;/dl&gt;.</t>
+  </si>
+  <si>
+    <t>有沒有fareastone domain的十筆可以參考，功能性帳號</t>
+  </si>
+  <si>
+    <t>FTP_DMP這個帳號最後一次變更密碼是啥時</t>
+  </si>
+  <si>
+    <t>我需要目前仍有使用的帳號，超過一年未改密碼的十筆</t>
+  </si>
+  <si>
+    <t>有哪些帳號超過一年沒有變更密碼，提供兩個範例即可</t>
+  </si>
+  <si>
+    <t>有哪些帳號超過一年沒有變更密碼，提供十個範例即可</t>
+  </si>
+  <si>
+    <t>列出過去三個月未變更密碼的所有帳號</t>
+  </si>
+  <si>
+    <t>請問我們環境是否有帳號未依規範進行三個月密碼變更?</t>
+  </si>
+  <si>
+    <t>Please bring me to the setting to prevent user changing their profile picture.</t>
+  </si>
+  <si>
+    <t>How can I configure Microsoft Graph API.</t>
+  </si>
+  <si>
+    <t>List of users who don't have picture in their profile.</t>
+  </si>
+  <si>
+    <t>List users who have changed their profile picture in the last 30 days..</t>
+  </si>
+  <si>
+    <t>users who have been involved in mass download from April 1, 2025.</t>
+  </si>
+  <si>
+    <t>List authentication-method registrations for all users in loyaltradebd.com</t>
+  </si>
+  <si>
+    <t>Show audit logs related to secure LDAP configuration for loyaltradebd.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNS domain name
+loyaltradebd.com
+Locations
+Southeast Asia
+Virtual Networks/Subnets
+Southeast Asia/aadds-vnet/aadds-vnet/aadds-subnet
+Network security groups
+Southeast Asia/aadds-nsg
+IP addresses
+Southeast Asia/10.1.0.5 10.1.0.4
+Secure LDAP
+Disabled
+Secure LDAP external IP addresses
+Southeast Asia/13.76.131.90
+Synchronization
+All
+Admin group
+AAD DC Administrators
+Resource ID
+/subscriptions/b8a78c6e-166d-42a0-8b1c-6dfcf18ec112/resourceGroups/TBBD-ADDS-SEA-RG/providers/Microsoft.AAD/domainServices/loyaltradebd.com
+Resource group
+TBBD-ADDS-SEA-RG
+Subscription name
+Azure Subscription
+Subscription ID
+</t>
+  </si>
+  <si>
+    <t>Specify a valid .PFX file containing the secure LDAP certificate. where is the certificate</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Configure secure LDAP failed. Details: Failed to configure secure LDAP for loyaltradebd.com. The certificate or password provided is invalid..</t>
+  </si>
+  <si>
+    <t>Show the current status of secure LDAP configuration for loyaltradebd.com</t>
+  </si>
+  <si>
+    <t>Show audit logs for provisioning management related to loyaltradebd.com</t>
+  </si>
+  <si>
+    <t>list out all the user sign in risk.</t>
+  </si>
+  <si>
+    <t>who is the account or ac manager?.</t>
+  </si>
+  <si>
+    <t>can asssist to disable account?.</t>
+  </si>
+  <si>
+    <t>Show risk history for Mohamed Jasli Bin Sidek.</t>
+  </si>
+  <si>
+    <t>How many guest users are there?.</t>
+  </si>
+  <si>
+    <t>列出所有來賓使用者的詳細資訊.</t>
+  </si>
+  <si>
+    <t>summarize the sign log for admin@timkuo1009hotmail.onmicrosoft.con for the day 2025/7/17 and point out the conditional access policy applied.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Require User Verification. Details: Delete operation failed. Try this command again or delete them one by one in the user authentication methods blade...</t>
+  </si>
+  <si>
+    <t>which users don't have any mfa option enabled.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Error creating certificate, please try again. Details: Creating certificate signing request..</t>
+  </si>
+  <si>
+    <t>users device mfa was enabled but what to select under user mfa settings if we want to re require mfa methods</t>
+  </si>
+  <si>
+    <t>How does Microsoft determine Risky Users?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show me last sign in logs </t>
+  </si>
+  <si>
+    <t>List risky users</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to create group. Details: Failed to create group Less than 23 GB Free . Insufficient privileges to complete the operation..</t>
+  </si>
+  <si>
+    <t>I'd like to dynamic add device to a group by using the join type attribute</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Saving authentication methods. Details: The policy did not save successfully..</t>
+  </si>
+  <si>
+    <t>Do you have links to where I do it?</t>
+  </si>
+  <si>
+    <t>I want to stop Microsoft Entra Connect because server is closed. How do I disable Connect Sync in M365</t>
+  </si>
+  <si>
+    <t>Customer ran into error with User creation failed. Details: SourceAnchor is a required property for creation of a federated user..</t>
+  </si>
+  <si>
+    <t>how do i create a m365 group from a long list of email addresses?</t>
+  </si>
+  <si>
+    <t>how do i use graph api</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Approve admin consent request. Details: Failed to approve the admin consent request for Graph Explorer..</t>
+  </si>
+  <si>
+    <t>How do I review and consent to 1 person not everyone that has requested access</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to enable multifactor authentication. Details: Unexpected error when enabling multifactor authentication.</t>
+  </si>
+  <si>
+    <t>Può azure notificare all'owner quando il certificato sta per scadere?</t>
+  </si>
+  <si>
+    <t>I need a list of all active users for the department "F075 Møller Logistikk Deler og Tilbehør". The list must contain: name, UPN, SAM, manager, created date, last logon, and password change date. Can you help me with that? I need it in excel or csv</t>
+  </si>
+  <si>
+    <t>I need this data in CSV format. Also include all columns requested in the last prompt</t>
+  </si>
+  <si>
+    <t>Al momento la notifica viene ricevuta dai global admin ma è possibile includere anche gli owner?</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Removing role assignment failed. Details: The Role assignment does not exist..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when was the last sign in </t>
+  </si>
+  <si>
+    <t>when did this account got disabled?</t>
+  </si>
+  <si>
+    <t>List the 5 most recent risky users in my tenant</t>
+  </si>
+  <si>
+    <t>Show risk detections for app ID OVDAdminDev</t>
+  </si>
+  <si>
+    <t>Pokaż wszystkie dzienniki inspekcji z ostatniego dnia</t>
+  </si>
+  <si>
+    <t>Pokaz mi liczbe singinlogs dla mojego uzytkwonika</t>
+  </si>
+  <si>
+    <t>display risky apps</t>
+  </si>
+  <si>
+    <t>how is the risk level determined</t>
+  </si>
+  <si>
+    <t>How many guest users are there?</t>
+  </si>
+  <si>
+    <t>can you list that user</t>
+  </si>
+  <si>
+    <t>List all Microsoft Entra recommendations</t>
+  </si>
+  <si>
+    <t>can you create a lifecycle workflow</t>
+  </si>
+  <si>
+    <t>list all workflows from type leaver</t>
+  </si>
+  <si>
+    <t>List all supported lifecycle‑workflow templates.</t>
+  </si>
+  <si>
+    <t>EndpointDlpUser1@erbulmus.xyz what risk</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to remove memberships. Details: Unable to complete due to service connection error. Please try again later...</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Removing role assignment failed. Details: Cannot delete the last admin assignment...</t>
+  </si>
+  <si>
+    <t>Where can I find this in the Entra Admin Center?.</t>
+  </si>
+  <si>
+    <t>Export a list of users who last changed their password before 01 october 2025.</t>
+  </si>
+  <si>
+    <t>How can I find all users who have not changed their password after a given date?.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can you convert the following list into their respextive upn's:
+Sandev Jaswal
+Zoe Gibbons
+Tolu Solola
+Philip Mante
+Rhys Kennedy
+Bethany Mak
+Nima Kordany
+Theo Giles
+Lee Smith
+Rebecca Levy
+Ayman Gill
+Toby Monger
+Jack Hudson
+Sam Maddocks
+Toby Newton-Dunn
+Bukami Cameron
+Adeniyi Kusimo
+Shoaib Ahmed
+Jake Walker
+Tom Duggan
+Daisy Platt
+Charlie Trett
+Sarah Miller
+Dan Weekes
+Chrishan Abeyewardena
+Clementine Carr
+Jack Davis
+Sam Foakes
+Ben Ake
+Matt Kidd
+Binta Sakio
+Benjamin Boundy
+Anya Devon-Berry
+Imran Mumtaz
+Rocco Winter
+Hassan Oladini
+Callum Wyatt
+Myron Rhule-Alexander
+Max Borkowski
+Konradas Rukas
+Wilfred Kiondo
+Daniel O'Neill
+Alex Kane
+Daniel Cooke
+Sam Wood
+Micah Nelson
+Connor Wright
+Joe Habgood
+Andrew Gatehouse
+Luke McCaffrey
+Harvey Clarke
+Surbhi Chaturvedi
+Giles Mccallum
+Hima Kizhakkedath
+Kyle Harris
+Sol Barry
+Khalid Ali
+Sara Silva
+Max Lee
+Will Candlish
+Jacob Holroyd
+Khadijah Read
+Bader Hirzalla
+Mollie Saunders
+Louis Stevens
+Theo Lyon-Ray
+Nezrin Badalov
+Reis Huseyin
+Lucie Barrett
+Callum Robinson
+Gurkeerit Gill
+Haseeb Ali
+Ololade Cardoso
+Jacob Cheshire
+Luccas Lovatt
+Rory Hosking
+Georgina McNulty-Ahern
+Declan McGrath
+Nick Wharton
+Rory Shooter
+Harry Salliss
+JJ Pogliaghi
+Max Bramhall
+Jamie Ditchfield
+Sakina Kapasi
+Derek Allison
+Sam Whitty
+Ahmed Asad
+Jordan Duff
+Riley Jacob
+Edward Shinner
+Zach Whitter
+Lewis Blue
+Max Crook
+Ben Hopkins
+Tom Birchenough
+Robert Donald
+Jack Poulton
+Matthew Wilson
+Samson Poroku
+Zaf Sedat
+Joshua Convey
+Michael Cooper
+Luke Andrews
+Tylan Gooden
+Ryan Anderson
+Dayna Prata
+Yaz Haddad
+Will Gibson
+Munashe Guzha
+Rachid Laredj
+Cheryl Kerrick
+Stephanie Mccahon
+Dren Hajrizaj
+Henry Jones
+Paddy Hewitt
+Shaun Keefe
+Harriet Moss
+Zaki Hakimzada
+Ruairi Gray
+Scott Seaman
+Harry Moran
+Julian Milsom
+Emily Palmer
+Charles Beresford
+Frederick Lifely
+Jessica Quorn
+Benedict Pyle
+Bradley Griffin
+Jennifer Palmer
+Nick Klein
+Katie Bright
+James Morgan
+Simon Batley
+Simon Heptonstall
+Jack Dean
+Georgia Anthony
+Harvey New
+Rob Seabourne
+Jonathan Erskine
+Andrew Barker
+Oliver Swallow
+Tyler Furne
+Harry Raybould
+Emily Bygrave
+Joshua Copeland
+Jake Janes
+Ryan Mahoney-Houghton
+Rijul Ralhan
+Chris Leigh
+Elliott D'Cruz
+James Maddison
+Christian Jones
+Tom Minter
+Jonathan Berry
+Thomas Wheeler
+Charlie Birchall
+Darryl Fleming
+William Davidson
+James Hughes
+Guneet Walia
+Harry McMullin
+Tom Tinsley
+Sam Gormley
+Myles Payne
+Aidan Thomson
+Samuel Elliott
+Richard Baker
+Alexander Knight
+Andy Dorrett
+Jess Futerman
+Mischa Penn
+Zoe Balroop
+Ollie Brookes
+Sam Burnside
+Sam Mwanza
+Samuel Charles
+Stuart Birch
+Daniel Kennedy
+Sam Demeo
+Jess Pitcher
+Manpreet Patel
+Joel Slidel
+James Weatherall
+Sophie Driscoll
+Maryam Al Fathi
+Olivia Osborne
+Zain Tauseef
+Harry Newton
+George Egleton
+Cameron Shadbolt
+Matthew Cornish
+Toby Mallinson
+Charles Craven
+Zoe Fletcher
+Jordan Obiekwe
+Billy Smith
+Oliver Segrave
+Thomas Fitzgerald
+Edward Charmantas
+Harry Joyles
+Dan Drury
+Thomas Langley-Jones
+James Blaby
+Millie King
+Joe Hazeldine
+James Clarke
+Melissa Sturman
+Alistair Marks
+Guy Kershaw
+Daniel Ricketts
+Jay Batchelor
+Danielle Bearman
+Adam Fraser
+Patrick Lukondo
+Gorav Bhullar
+Jude Blake
+Jamie Mann
+Sophie Hurst
+Connie Lewis
+Umang Vadher
+Tom Hadden
+Jamie Cusack
+Joshua Smith
+Will Schofield
+Morgan Barnes
+Harry Brown
+John Gatrell
+William Pascall
+Lorna Sharpe
+Sabrina D'Cruz
+Matthew Hill
+Samuel Burridge
+Sam Williamson
+Barney Dixon
+Alex Smith
+Tom Wishart
+Sean Connolly
+William Poole
+Stephan Disneur
+Andrew Hill
+Matthew Reysen
+Matt Brennan
+</t>
+  </si>
+  <si>
+    <t>Retrieve UPNs for the next batch of names: Bethany Mak, Nima Kordany, Theo Giles, Lee Smith, Rebecca Levy, Ayman Gill, Toby Monger, Jack Hudson, Sam Maddocks, Toby Newton-Dunn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">which version ran by NPAL00039N22 Windows
+10.0.22621.5624
+</t>
+  </si>
+  <si>
+    <t>copilot connector</t>
+  </si>
+  <si>
+    <t>how i can know Postmaster for the domain?</t>
+  </si>
+  <si>
+    <t>Show sign-in activity for Digital Support (support@visitdenmark.com)</t>
+  </si>
+  <si>
+    <t>Show full details for the 'Add delegated permission grant' failure on 2025-07-23T12:16:52Z</t>
+  </si>
+  <si>
+    <t>Liste alle Gruppen auf, in der ich Mitglied bin</t>
+  </si>
+  <si>
+    <t>there is an option to give a normal user to reset authentication methods for users only?</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Unable to add method. Details: Unable to add Phone number. - Mobile phone method is already registered for this account..</t>
+  </si>
+  <si>
+    <t>Active User in last 1 month.</t>
+  </si>
+  <si>
+    <t>Active User in last 1 month . export this to a csv.</t>
+  </si>
+  <si>
+    <t>Export list of devices inactive since last 1 year in .csv.</t>
+  </si>
+  <si>
+    <t>Export device inventory.</t>
+  </si>
+  <si>
+    <t>show me the last sign-in logs in my tenant.</t>
+  </si>
+  <si>
+    <t>show me any risky login.</t>
+  </si>
+  <si>
+    <t>List service principals with expiring credentials soon.</t>
+  </si>
+  <si>
+    <t>List recommendations to reduce surface-area risk..</t>
+  </si>
+  <si>
+    <t>List high-priority recommendations.</t>
+  </si>
+  <si>
+    <t>Show me unused apps starting with event.</t>
+  </si>
+  <si>
+    <t>Mi dici quali ruoli sono assegnati all'app Microsoft-Sentinel-Integration-1790?.</t>
+  </si>
+  <si>
+    <t>Nemmeno sulle subscription di Azure?.</t>
+  </si>
+  <si>
+    <t>list the user with password never expire.</t>
+  </si>
+  <si>
+    <t>Analyse the Identity security score and identify which ones depend on 3rd party intervention.</t>
+  </si>
+  <si>
+    <t>Which users have the highest risk level?.</t>
+  </si>
+  <si>
+    <t>What are the CA rules hitting this account? SDK_Registry_LT@moller.lv.</t>
+  </si>
+  <si>
+    <t>Show CA policies applied to 3d52af1a-cf2a-43fe-952b-014e9bebef1e.</t>
+  </si>
+  <si>
+    <t>Which accounts have a password expiry set to them?.</t>
+  </si>
+  <si>
+    <t>List users with password expiry settings.</t>
+  </si>
+  <si>
+    <t>Can you query Microsoft graph about the email sending permissions for the following account? 3d52af1a-cf2a-43fe-952b-014e9bebef1e.</t>
+  </si>
+  <si>
+    <t>How can I unblock an account to allow it to send mails again?=.</t>
+  </si>
+  <si>
+    <t>Check if the account with user ID 3d52af1a-cf2a-43fe-952b-014e9bebef1e is enabled.</t>
+  </si>
+  <si>
+    <t>Can you check what email sending permissions the account 3d52af1a-cf2a-43fe-952b-014e9bebef1e has?.</t>
+  </si>
+  <si>
+    <t>Show me the users who are been disabled for the last 6 month and has no Microsoft License assigned.</t>
+  </si>
+  <si>
+    <t>what is the date the account get disabled ?.</t>
+  </si>
+  <si>
+    <t>show the last interactive sign-in time for Sneha &amp; Manish.</t>
+  </si>
+  <si>
+    <t>what is the different between interactive sign-in vs non-interactive sign in.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to remove memberships. Details: Insufficient privileges to remove the selected memberships...</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Unable to add method. Details: Unable to add Temporary Access Pass. - Converged UserCredentialPolicy does not allow creating or updating this authentication method. AuthMethodType [TemporaryAccessPass]...</t>
+  </si>
+  <si>
+    <t>Find all users that belong to Privileged Authentication Administrator
+.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to remove application assignments. Details: Failure while removing 1 application assignments..</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Error. Details: An error occurred when attempting to save the SSO user claims..</t>
+  </si>
+  <si>
+    <t>fetch data from graph.microsoft.com/v1.0/security/antispamPolicies</t>
+  </si>
+  <si>
+    <t>Compose a report on Marks and Spencer IGA.</t>
+  </si>
+  <si>
+    <t>Identity Governance: Details about identity management, access controls, and compliance within Marks and Spencer..</t>
+  </si>
+  <si>
+    <t>Customer ran into error with File download error. Details: Failed to download the file. Error details: error 401 InvalidTenantId..</t>
+  </si>
+  <si>
+    <t>Why is LEXELTEST-CMU1@scp-ks.org not a member of License - Office E5 - Contracted?.</t>
+  </si>
+  <si>
+    <t>please add the account to License - Office E5 - Contracted.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to upload user profile photo. Details: Failed to upload user profile photo for Admin FN002..</t>
+  </si>
+  <si>
+    <t>What is the policy id for "Block device code flow" CA policy? .</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to update user. Details: Failed to update user properties. Please try again later...</t>
+  </si>
+  <si>
+    <t>List any issues associated with this device.</t>
+  </si>
+  <si>
+    <t>List the policies that this device is not compliant with.</t>
+  </si>
+  <si>
+    <t>can you give all adarma accounts?.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Cross-tenant access settings. Details: Conflicting configuration found for access types on applications and users.  Both access types must match...</t>
+  </si>
+  <si>
+    <t>cuantos usuarios disponen activado el MFA?.</t>
+  </si>
+  <si>
+    <t>This is a SSTP VPN Connection via RRAS and a NPS with the Entra MFA Plugin, it does not list any CA policies. Is it safe to assume if I were to deploy a enforce Phishing resistant MFA for Admins and this use had a Admin role would the Push notification from the NPS Plugin still work?.</t>
+  </si>
+  <si>
+    <t>i don't know the vpn ip address it coming form mulipe soruce and this is an proactive policy to protoct .</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Testing connection to CTS-ELCEE-CSC-SOC-001. Details: &lt;div style="word-break: break-word" &gt;You appear to have entered invalid credentials. Please confirm you are using the correct information for an administrative account.&lt;/div&gt;&lt;br /&gt;&lt;div style="word-break: break-word" &gt;&lt;strong&gt;Error code:&lt;/strong&gt; AzureActiveDirectoryCrossTenantSyncPolicyCheckFailure&lt;/div&gt;&lt;div style="word-break: break-word" &gt;&lt;strong&gt;Details:&lt;/strong&gt; The tenant 2b55fa1c-0add-4120-a8e4-9987abf4d504 does not have a cross tenant access partner policy for e55db25b-50a2-4622-9a7f-7e7a65ec221e.  Please enable the cross-tenant access policy for auto consent and synchronization.  Learn more: aka.ms/TroubleshootingCrossTenantSyncPolicyCheck&lt;/div&gt;&lt;div&gt;&lt;strong&gt;Request-id:&lt;/strong&gt; e6b1f4d4-0704-4dff-91a8-b5f4fb7bcd7e&lt;/div&gt;..</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Testing connection to CTS-ELCEE-CSC-SOC-001. Details: &lt;div style="word-break: break-word" &gt;You appear to have entered invalid credentials. Please confirm you are using the correct information for an administrative account.&lt;/div&gt;&lt;br /&gt;&lt;div style="word-break: break-word" &gt;&lt;strong&gt;Error code:&lt;/strong&gt; AzureActiveDirectoryCrossTenantSyncPolicyCheckFailure&lt;/div&gt;&lt;div style="word-break: break-word" &gt;&lt;strong&gt;Details:&lt;/strong&gt; The tenant 2b55fa1c-0add-4120-a8e4-9987abf4d504 does not have a cross tenant access partner policy for e55db25b-50a2-4622-9a7f-7e7a65ec221e.  Please enable the cross-tenant access policy for auto consent and synchronization.  Learn more: aka.ms/TroubleshootingCrossTenantSyncPolicyCheck&lt;/div&gt;&lt;div&gt;&lt;strong&gt;Request-id:&lt;/strong&gt; 413311c2-3279-41df-95c8-1bab62af61bf&lt;/div&gt;..</t>
+  </si>
+  <si>
+    <t>in the conditional access, how i can block and prvent and login in comming from VPN.</t>
+  </si>
+  <si>
+    <t>angela.sanseviero
+andrea.civerra
+roberta.barrella
+federico.pozzi
+francesca.anelli
+davide.angelilli
+sara.mancini
+stefano.guacci
+giorgia.demaio
+leonardo.mengoni
+domenico.gentile.</t>
+  </si>
+  <si>
+    <t>quanti di questo elenco hanno un utenza @dag.tesoro.it.</t>
+  </si>
+  <si>
+    <t>si. angela.sanseviero
+andrea.civerra
+roberta.barrella
+federico.pozzi
+francesca.anelli
+davide.angelilli
+sara.mancini
+stefano.guacci
+giorgia.demaio
+leonardo.mengoni
+domenico.gentile
+hanno utenze @dag.tesoro.it?.</t>
+  </si>
+  <si>
+    <t>is the client secrets 'expires' value available in a log analytics table?.</t>
+  </si>
+  <si>
+    <t>Show CA policies applied to group b649408e-c268-4f7f-865a-85ff3cf38fd9.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Bulk operations. Details: Bulk operation GroupImportMembersTemplate.csv finished. However, 18 of the 1122 sub-operations failed. Click on the title to see the detailed information...</t>
+  </si>
+  <si>
+    <t>Customer ran into error with User invitation failed. Details: The invited user already exists in the directory as object ID: 3f1a9893-cc01-4616-8a50-fc94c326d33e. They can use that account to sign in to shared apps and resources..</t>
+  </si>
+  <si>
+    <t>List direct and nested group memberships for user CLabbe@wsp.com</t>
+  </si>
+  <si>
+    <t>show me all users with permissions in azure that do no have mfr enabled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+show me all users with permissions in azure that do no have mfa enabled.</t>
+  </si>
+  <si>
+    <t>can you show me a list of users which have owner permissions on any subscription that begin with Y followed by a number.</t>
+  </si>
+  <si>
+    <t>find users which begin with Y followed by a number in any subscription.</t>
+  </si>
+  <si>
+    <t>cuales son los passwords settings que tenemos en la organizacion?.</t>
+  </si>
+  <si>
+    <t>who has this number +974 5551 5355 registered as authentication method in this tenant</t>
+  </si>
+  <si>
+    <t>which user has the mobile number +974 5551 5355</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Grant consent. Details: Grant consent failed with error: This application requires application permissions to another application. Consent for application permissions can only be performed by an administrator. Sign out and sign in as an administrator or contact one of your organization's administrators. [Eq9ljBLXSjKv1f8PdHtPpR]..</t>
+  </si>
+  <si>
+    <t>What Admin role do I need to solve this?.</t>
+  </si>
+  <si>
+    <t>I want to look at Any user that has registration or reset under activity type column. 
+In the output is should show me the UPN, Name Acvtibity type and method used</t>
+  </si>
+  <si>
+    <t>can you tell me what you see on this page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+You said:
+Need to filter KQL query for activity type </t>
+  </si>
+  <si>
+    <t>how to call the reegistraion and reset events in advance hunting</t>
+  </si>
+  <si>
+    <t>give me a KQL query to get this table in advance hunting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need to filter KQL query for activity type </t>
+  </si>
+  <si>
+    <t>List risky users.</t>
+  </si>
+  <si>
+    <t>how to cleanup old guest users?.</t>
+  </si>
+  <si>
+    <t>give me a list of guest users that didn't logon for more than 90 days.</t>
+  </si>
+  <si>
+    <t>but how can this be scripted because it are a lot of users.</t>
+  </si>
+  <si>
+    <t>Display all disabled user accounts in my tenant.</t>
+  </si>
+  <si>
+    <t>these are the workload ID's 
+GSA-RDS-EU-SQL-FARM
+GSA-RDS-EU-SQL-FARM
+01436473-b57c-4772-aa0c-96a722a3465f
+L
+LMUK-Backup
+018a825c-f22e-492f-8334-143432c91577
+G
+GSA-Internettrafficforwardingprofile
+01b695db-a724-4269-88b7-4ed30a74b177
+GSA-APP-EU-NAV
+GSA-APP-EU-NAV
+0237ed4b-e079-47c2-971c-5cb977c2d4d3
+GSA-RDS-EU-ERPJUMP
+GSA-RDS-EU-ERPJUMP
+046aae02-a62d-4a83-9181-6d7a058c9bd0
+S
+Sugar-CRM-2022-2027
+073a727a-a21c-4757-b491-01e39ff83683
+GSA-RDS-US-CO-AZU-ERP
+GSA-RDS-US-CO-AZU-ERP
+07a44f22-8e3a-4173-9fe0-dc1b56649c44
+GSA-APP-CA-Cameras
+GSA-APP-CA-Cameras
+08387b07-9363-4982-a687-f3a017421f81
+GSA-FS-EU-GB-SOH-FILES01
+GSA-FS-EU-GB-SOH-FILES01
+08f80868-e58e-4d6c-a733-8ee8f007a108
+GSA-RDS-FR-SAGEPAYROLL
+GSA-RDS-FR-SAGEPAYROLL
+09e712f2-ec1c-42da-a0c6-13ca70c4b8d9
+GSA-FS-US-FS01
+GSA-FS-US-FS01
+0a0f9cd5-b612-4935-8e37-ae210948b66c
+L
+lm-uk-bck2
+0a58c47a-2e18-48d9-9d9b-92ec47aa671a
+GSA-APP-US-NAV
+GSA-APP-US-NAV
+0b7e64c6-823f-4162-bfe6-933d6f8fc3dc
+T
+testing
+0c3c6b36-f09c-4012-904a-1a6c01bc5b43
+W
+WindowsAdminCenter-https://gl-azu-audit01.dywidag.net:40030
+0d333de9-851a-4d76-b346-b34d6644d19b
+GSA-RDS-US-RDSFarm
+GSA-RDS-US-RDSFarm
+0e864f45-83d4-44d8-a731-91059f83c1c8
+GSA-FTP-DatumMonitoring.com
+GSA-FTP-DatumMonitoring.com
+0f500410-8ef3-4d39-aa69-4a54ce3c5df4
+Coupa
+Coupa
+116575ce-8b6e-4875-ad66-dd30ce70bdba
+GSA-RDS-EU-FR-AZU-FS01
+GSA-RDS-EU-FR-AZU-FS01
+118072aa-a8f5-4b7b-89df-da6248e9dcf5
+GSA-RDS-EU-RDSFarm-TamGroup
+GSA-RDS-EU-RDSFarm-TamGroup
+1272cbe9-546e-418d-b0b9-63daa2caebaa
+Coupa Treasury PRODUCTION
+Coupa Treasury PRODUCTION
+1599e9fd-6eca-4a4a-b214-fd55b86724b8
+GSA-FS-EU-NL-AZU-FS01
+GSA-FS-EU-NL-AZU-FS01
+16002165-030f-4273-ac55-f5af0ca82c50
+MA
+ManageEngine ADManager Plus-915609464
+16a28e12-d566-4015-b9df-9030524703d6
+L
+LMUK-Backup
+17188066-85ac-4eca-807c-0631f4c1b6b5
+CC
+CS Case Followup and Closure (Microsoft Copilot Studio)
+19f9fc9f-f561-47c2-a45a-8e3ec32eb94e
+GSA-RDS-EU-AZU-APP02
+GSA-RDS-EU-AZU-APP02
+1a2a3a03-a33f-4375-a571-68319b6f0c0e
+MF
+Mentimeter for PowerPoint
+1ae65c27-d547-478b-bd58-9ee5ef5c24ba
+GSA-RDS-EU-dy15-adfs
+GSA-RDS-EU-dy15-adfs
+1bc02f72-7f83-43d5-b837-5a883f6fd5bd
+GSA-MGMT-Leg-Firewalls
+GSA-MGMT-Leg-Firewalls
+22a8202c-0ed5-4e87-a2e4-61cc5d98454b
+A
+AD360-Audit
+23141b85-4b5d-4bd8-af0e-2d9004b20eb7
+8x8
+8x8
+26ef9340-eacb-49ef-8e15-0c2663191864
+GSA-RDS-US-BR-AZU-FS01
+GSA-RDS-US-BR-AZU-FS01
+28b4575a-6d72-48bd-b22d-532d507ea1fd
+GSA-APP-EU-ISSUE-CA01
+GSA-APP-EU-ISSUE-CA01
+28d8347b-cdc8-4476-8d3a-57776f762bc7
+GSA-APP-US-AlvaradoCameras
+GSA-APP-US-AlvaradoCameras
+28d8a7c0-4e67-445a-b503-193514d806d2
+SO
+SharePoint Online Client Extensibility Web Application Principal
+2d59df8a-3047-4970-89d2-b09491bd2894
+GSA-APP-EU-UK-NAV
+GSA-APP-EU-UK-NAV
+2ebe28e6-dd02-41df-9193-30bf3af43610
+GSA-APP-EU-PDM
+GSA-APP-EU-PDM
+2ed40718-4fd7-4ade-b76f-184879312a20
+C
+compareandupdateblocklist
+2f72cc90-aaf0-4196-926b-ea782d3abfaf
+XA
+XLMiner Analysis ToolPak
+30bdbdb0-bba5-4929-a9e6-fd3c66a4e2ce
+DS
+D365 Sales Agent - Stakeholder Research (Microsoft Copilot Studio)
+31cf2e8c-7ae6-4b34-a84e-3453ed0156b7
+GSA-RDS-APAC-RDSFarm-HK-TW
+GSA-RDS-APAC-RDSFarm-HK-TW
+35a8d037-3f98-4405-bd87-ce91df453956
+GSA-FS-EU-BUY-GRAPHICS
+GSA-FS-EU-BUY-GRAPHICS
+36e3b664-c881-4552-a676-b39b84c7e967
+Zoho-Service-Desk
+Zoho-Service-Desk
+3834324d-c02c-4a59-a3ab-cb9006c19a2b
+GSA-FS-EU-DY8-FS01
+GSA-FS-EU-DY8-FS01
+3bc320fd-19d4-4a8f-892e-e856e60e4f48
+DT
+DSI Trading
+3d96383c-5821-4e70-a6f4-c5b2d3329b31
+GSA-RDS-All-PAPRX
+GSA-RDS-All-PAPRX
+3f24b37c-ebef-404c-b0eb-daf81fbcba19
+GSA-RDS-US-AZU-Sage
+GSA-RDS-US-AZU-Sage
+4103e7fa-db58-4d99-93be-9d6aee22e72b
+GSA-RDS-EU-RDSFarm_DE-PL
+GSA-RDS-EU-RDSFarm_DE-PL
+44957a00-148d-4a19-9cfe-d75645965db6
+GSA-RDS-US-DSI-SQL
+GSA-RDS-US-DSI-SQL
+4697ded9-af9e-4fe4-bbc9-315a4a9d9dfa
+GSA-RDS-APAC-SQLServers
+GSA-RDS-APAC-SQLServers
+480a6538-9039-4a00-bb06-417c7b119e06
+.</t>
+  </si>
+  <si>
+    <t>which of the 10 workload ID's can i add a workload license to .</t>
+  </si>
+  <si>
+    <t>Customer ran into error with User 'Mateo Alfonso' addition failed. Details: &lt;div&gt;Request forbidden&lt;/div&gt;&lt;div style="margin:10px 0;font-weight:bold"&gt;More Details&lt;/div&gt;&lt;dl&gt;&lt;dt&gt;Correlation id&lt;/dt&gt;&lt;dl&gt;c2c438a4-33aa-416a-889b-cab423ea0dcd&lt;/dl&gt;&lt;/dl&gt;..</t>
+  </si>
+  <si>
+    <t>where do I find Logic Apps ?.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Verify MPN ID. Details: A verified publisher cannot be added to this application. Please contact your administrator for assistance. &lt;a href="https://go.microsoft.com/fwlink/?linkid=2236836" target="_blank"&gt;Learn more&lt;/a&gt; [LGgPZpAvXX/2Pc40wjEVlL]..</t>
+  </si>
+  <si>
+    <t>I need a kql query to display all accounts confirmed compromised in the last 90 days.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to create group. Details: Failed to create group NF Dynamic Device Testing. ..</t>
+  </si>
+  <si>
+    <t>why CA policy was not applied to this sign in event 	
+5765b871-35ba-4970-af89-369b3c04aee6.</t>
+  </si>
+  <si>
+    <t>what is unusual with this login with correlation id 	
+5765b871-35ba-4970-af89-369b3c04aee6.</t>
+  </si>
+  <si>
+    <t>try again.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Unable to revoke sessions. Details: Unable to revoke sessions for Mozzetti Antonella because they have a privileged role..</t>
+  </si>
+  <si>
+    <t>Show sign-in activity for Mozzetti Antonella.</t>
+  </si>
+  <si>
+    <t>Show audit logs initiated by Mozzetti Antonella.</t>
+  </si>
+  <si>
+    <t>For cloud only -Z accounts we migrated the Entra roles from -b to -z accounts for Entra team members. Currently we are waiting for the next communication/action from IAM expertise side for migration of roles for other towers. - make it polite.</t>
+  </si>
+  <si>
+    <t>how can i export all conditional access policies in Microsoft Entra Admin Center.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Application assignment failed. Details: Assignment failed for 0 users &amp; 1 group. Click on the notification title to learn more..</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Role assignment failed for member 'Smith R' to role 'Member' in 'Security'. Details: The resource is not found..</t>
+  </si>
+  <si>
+    <t>Listar entradas de usuário que falharam nas últimas 24 horas.</t>
+  </si>
+  <si>
+    <t>Map these role id with role name.</t>
+  </si>
+  <si>
+    <t>What priviledge access do these accounts have.</t>
+  </si>
+  <si>
+    <t>List down RBAC or role assignment for Company Administrator Account for CoreView Management and CFC_DU_ibot.</t>
+  </si>
+  <si>
+    <t>List down all the risky users.</t>
+  </si>
+  <si>
+    <t>Get me risky user who has priviledge user but not login last 15 days.</t>
+  </si>
+  <si>
+    <t>List of priviledge users who don't have MFA enabled.</t>
+  </si>
+  <si>
+    <t>Customer ran into error with Failed to update user. Details: Failed to update user properties. Please try again later..</t>
   </si>
 </sst>
 </file>
@@ -204,7 +2190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -225,14 +2211,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +2566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DACEC00-416F-4938-A9A3-B3BD701D6B00}">
-  <dimension ref="A1:A267"/>
+  <dimension ref="A1:B583"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -578,234 +2577,4668 @@
     <col min="1" max="1" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="B25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="B29" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="B31" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+      <c r="B35" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+      <c r="B41" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
-        <v>1</v>
+      <c r="B44" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A342" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A343" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A344" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A345" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A346" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A347" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A348" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A349" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A350" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A351" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A352" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A353" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A355" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A356" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A357" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A358" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A359" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A360" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A361" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A362" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A363" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A364" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A365" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A366" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A367" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A368" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A369" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A370" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A371" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A372" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A373" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A374" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A375" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A376" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B376" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A377" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A378" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B378" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A379" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A380" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A381" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A382" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A383" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A384" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A385" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A386" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A387" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A388" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A389" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A390" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A391" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A392" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A393" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A394" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A395" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A396" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A397" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A398" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A399" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A400" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A401" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A402" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A403" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A404" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A405" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A406" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A407" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A408" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A409" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A410" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A411" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A412" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A413" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A414" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A415" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A416" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A417" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A418" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A419" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A420" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A421" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A422" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A423" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A424" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A425" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A426" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A427" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A428" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A429" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A430" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A431" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A432" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A433" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A434" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A435" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A436" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A437" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A438" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A439" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A440" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A441" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A442" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A443" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A444" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A445" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A446" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A447" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A448" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A449" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A450" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A451" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A452" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A453" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A454" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A455" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A456" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A457" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A458" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A459" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A460" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A461" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A462" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A463" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A464" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A465" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A466" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A467" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A468" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A469" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A470" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A471" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A472" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A473" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A474" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A475" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A476" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A477" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A478" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A479" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A480" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A481" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A482" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A483" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A484" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A485" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A486" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A487" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A488" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A489" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A490" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A491" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A492" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A493" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A494" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A495" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A496" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A497" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A498" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A499" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A500" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A501" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A502" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A503" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A504" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A505" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A506" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A507" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A508" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A509" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A510" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A511" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A512" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A513" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A514" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A515" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A516" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A517" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A518" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A519" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A520" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A521" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A522" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A523" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A524" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A525" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A526" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A527" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A528" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A529" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A530" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A531" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A532" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A533" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A534" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A535" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A536" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A537" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A538" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A539" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A540" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A541" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A542" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A543" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A544" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A545" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A546" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A547" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A548" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A549" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A550" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A551" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A552" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A553" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A554" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A555" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A556" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A557" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A558" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A559" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A560" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A561" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A562" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A563" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A564" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A565" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A566" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A567" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A568" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A569" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A570" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A571" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A572" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A573" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A574" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A575" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A576" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A577" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A578" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A579" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A580" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A581" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A582" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A583" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
